--- a/SpMVC_000_Godlife/src/main/webapp/res/doc/godlife-테이블명세-양식.xlsx
+++ b/SpMVC_000_Godlife/src/main/webapp/res/doc/godlife-테이블명세-양식.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\KMS5050012\Documents\homework\SpMVC_000_Godlife\SpMVC_000_Godlife\src\main\webapp\resources\doc\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\KMS5050012\Documents\homework\SpMVC_000_Godlife\SpMVC_000_Godlife\src\main\webapp\res\doc\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{789FC23E-62ED-404A-AEA4-8B610F84F2B7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F990E064-77D4-4568-BA3B-E5289CA247E2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="7845" yWindow="1020" windowWidth="17580" windowHeight="13620" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="유저정보" sheetId="2" r:id="rId1"/>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="259" uniqueCount="93">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="286" uniqueCount="113">
   <si>
     <t>열 이름</t>
   </si>
@@ -140,9 +140,6 @@
     <t>u_email</t>
   </si>
   <si>
-    <t>u_pawd</t>
-  </si>
-  <si>
     <t>u_name</t>
   </si>
   <si>
@@ -164,9 +161,6 @@
     <t>닉네임</t>
   </si>
   <si>
-    <t>u_char</t>
-  </si>
-  <si>
     <t>PRIMARY KEY</t>
   </si>
   <si>
@@ -224,15 +218,9 @@
     <t>varchar(50)</t>
   </si>
   <si>
-    <t>챌린지, 일정등 계획을 등록하는 테이블</t>
-  </si>
-  <si>
     <t>챌린지 등록</t>
   </si>
   <si>
-    <t>tbl_chal</t>
-  </si>
-  <si>
     <t>SEQ</t>
   </si>
   <si>
@@ -254,9 +242,6 @@
     <t>챌린지 로그</t>
   </si>
   <si>
-    <t>tbl_chal_log</t>
-  </si>
-  <si>
     <t>등록된 챌린지 로그를 저장하는 테이블</t>
   </si>
   <si>
@@ -275,25 +260,7 @@
     <t>int</t>
   </si>
   <si>
-    <t>c_seq</t>
-  </si>
-  <si>
-    <t>c_memo</t>
-  </si>
-  <si>
-    <t>c_sDate</t>
-  </si>
-  <si>
-    <t>c_eDate</t>
-  </si>
-  <si>
-    <t>c_count</t>
-  </si>
-  <si>
     <t>c_share</t>
-  </si>
-  <si>
-    <t>c_useyn</t>
   </si>
   <si>
     <t>정수형</t>
@@ -304,7 +271,129 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>int</t>
+    <t>문자열(2)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>varchar(2)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>계획코드</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>c_pcode</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>c_uemail</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>varchar(10)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>tbl_challenge</t>
+  </si>
+  <si>
+    <t>tbl_schedule</t>
+  </si>
+  <si>
+    <t>s_sdate</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>s_edate</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>s_memo</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>s_uemail</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>s_seq</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>s_pcode</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>목표횟수</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>실행횟수</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>s_count</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>s_achieve</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>c_seq</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>c_memo</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>c_sdate</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>c_edate</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>c_achieve</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>c_count</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>c_useyn</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>s_share</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>s_useyn</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>u_password</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>u_nickname</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>tbl_log</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>유저메일</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>챌린지, 일정등 계획을 등록하는 테이블</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -850,6 +939,12 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -873,12 +968,6 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="3">
@@ -1221,8 +1310,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="B2:L35"/>
   <sheetViews>
-    <sheetView showGridLines="0" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="L11" sqref="L11"/>
+    <sheetView showGridLines="0" tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="D10" sqref="D10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15"/>
@@ -1879,18 +1968,18 @@
       <c r="C2" s="3" t="s">
         <v>23</v>
       </c>
-      <c r="D2" s="28" t="s">
+      <c r="D2" s="30" t="s">
         <v>14</v>
       </c>
-      <c r="E2" s="28"/>
-      <c r="F2" s="28"/>
-      <c r="G2" s="28"/>
-      <c r="H2" s="30" t="s">
+      <c r="E2" s="30"/>
+      <c r="F2" s="30"/>
+      <c r="G2" s="30"/>
+      <c r="H2" s="32" t="s">
         <v>12</v>
       </c>
-      <c r="I2" s="30"/>
-      <c r="J2" s="31"/>
-      <c r="K2" s="32"/>
+      <c r="I2" s="32"/>
+      <c r="J2" s="33"/>
+      <c r="K2" s="34"/>
       <c r="L2" s="18" t="s">
         <v>11</v>
       </c>
@@ -1902,32 +1991,32 @@
       <c r="C3" s="10" t="s">
         <v>22</v>
       </c>
-      <c r="D3" s="29"/>
-      <c r="E3" s="29"/>
-      <c r="F3" s="29"/>
-      <c r="G3" s="29"/>
-      <c r="H3" s="33" t="s">
+      <c r="D3" s="31"/>
+      <c r="E3" s="31"/>
+      <c r="F3" s="31"/>
+      <c r="G3" s="31"/>
+      <c r="H3" s="35" t="s">
         <v>13</v>
       </c>
-      <c r="I3" s="33"/>
-      <c r="J3" s="34"/>
-      <c r="K3" s="35"/>
+      <c r="I3" s="35"/>
+      <c r="J3" s="36"/>
+      <c r="K3" s="37"/>
       <c r="L3" s="17"/>
     </row>
     <row r="4" spans="2:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B4" s="8" t="s">
         <v>15</v>
       </c>
-      <c r="C4" s="36"/>
-      <c r="D4" s="36"/>
-      <c r="E4" s="36"/>
-      <c r="F4" s="36"/>
-      <c r="G4" s="36"/>
-      <c r="H4" s="36"/>
-      <c r="I4" s="36"/>
-      <c r="J4" s="36"/>
-      <c r="K4" s="36"/>
-      <c r="L4" s="37"/>
+      <c r="C4" s="28"/>
+      <c r="D4" s="28"/>
+      <c r="E4" s="28"/>
+      <c r="F4" s="28"/>
+      <c r="G4" s="28"/>
+      <c r="H4" s="28"/>
+      <c r="I4" s="28"/>
+      <c r="J4" s="28"/>
+      <c r="K4" s="28"/>
+      <c r="L4" s="29"/>
     </row>
     <row r="5" spans="2:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B5" s="4" t="s">
@@ -1978,11 +2067,11 @@
         <v>37</v>
       </c>
       <c r="F6" s="3" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="G6" s="3"/>
       <c r="H6" s="3" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="I6" s="3"/>
       <c r="J6" s="3"/>
@@ -2000,13 +2089,13 @@
         <v>31</v>
       </c>
       <c r="E7" s="10" t="s">
-        <v>38</v>
+        <v>108</v>
       </c>
       <c r="F7" s="10" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="G7" s="10" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="H7" s="10"/>
       <c r="I7" s="10"/>
@@ -2025,10 +2114,10 @@
         <v>32</v>
       </c>
       <c r="E8" s="10" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="F8" s="10" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="G8" s="10"/>
       <c r="H8" s="10"/>
@@ -2042,16 +2131,16 @@
         <v>4</v>
       </c>
       <c r="C9" s="10" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="D9" s="10" t="s">
         <v>32</v>
       </c>
       <c r="E9" s="10" t="s">
-        <v>46</v>
+        <v>109</v>
       </c>
       <c r="F9" s="10" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="G9" s="10"/>
       <c r="H9" s="10"/>
@@ -2071,13 +2160,13 @@
         <v>33</v>
       </c>
       <c r="E10" s="10" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="F10" s="10" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="G10" s="10" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="H10" s="10"/>
       <c r="I10" s="10"/>
@@ -2096,10 +2185,10 @@
         <v>34</v>
       </c>
       <c r="E11" s="10" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="F11" s="10" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="G11" s="10"/>
       <c r="H11" s="10"/>
@@ -2119,13 +2208,13 @@
         <v>35</v>
       </c>
       <c r="E12" s="10" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="F12" s="10" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="G12" s="10" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="H12" s="10"/>
       <c r="I12" s="10"/>
@@ -2144,13 +2233,13 @@
         <v>35</v>
       </c>
       <c r="E13" s="10" t="s">
+        <v>42</v>
+      </c>
+      <c r="F13" s="10" t="s">
+        <v>51</v>
+      </c>
+      <c r="G13" s="10" t="s">
         <v>43</v>
-      </c>
-      <c r="F13" s="10" t="s">
-        <v>53</v>
-      </c>
-      <c r="G13" s="10" t="s">
-        <v>44</v>
       </c>
       <c r="H13" s="10"/>
       <c r="I13" s="10"/>
@@ -2441,7 +2530,7 @@
   <dimension ref="B1:L35"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScale="115" workbookViewId="0">
-      <selection activeCell="E11" sqref="E11"/>
+      <selection activeCell="F13" sqref="F13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12" x14ac:dyDescent="0.15"/>
@@ -3097,20 +3186,20 @@
         <v>9</v>
       </c>
       <c r="C2" s="3" t="s">
-        <v>54</v>
-      </c>
-      <c r="D2" s="28" t="s">
+        <v>52</v>
+      </c>
+      <c r="D2" s="30" t="s">
         <v>14</v>
       </c>
-      <c r="E2" s="28"/>
-      <c r="F2" s="28"/>
-      <c r="G2" s="28"/>
-      <c r="H2" s="30" t="s">
+      <c r="E2" s="30"/>
+      <c r="F2" s="30"/>
+      <c r="G2" s="30"/>
+      <c r="H2" s="32" t="s">
         <v>12</v>
       </c>
-      <c r="I2" s="30"/>
-      <c r="J2" s="31"/>
-      <c r="K2" s="32"/>
+      <c r="I2" s="32"/>
+      <c r="J2" s="33"/>
+      <c r="K2" s="34"/>
       <c r="L2" s="18" t="s">
         <v>11</v>
       </c>
@@ -3120,36 +3209,36 @@
         <v>10</v>
       </c>
       <c r="C3" s="10" t="s">
-        <v>55</v>
-      </c>
-      <c r="D3" s="29"/>
-      <c r="E3" s="29"/>
-      <c r="F3" s="29"/>
-      <c r="G3" s="29"/>
-      <c r="H3" s="33" t="s">
+        <v>53</v>
+      </c>
+      <c r="D3" s="31"/>
+      <c r="E3" s="31"/>
+      <c r="F3" s="31"/>
+      <c r="G3" s="31"/>
+      <c r="H3" s="35" t="s">
         <v>13</v>
       </c>
-      <c r="I3" s="33"/>
-      <c r="J3" s="34"/>
-      <c r="K3" s="35"/>
+      <c r="I3" s="35"/>
+      <c r="J3" s="36"/>
+      <c r="K3" s="37"/>
       <c r="L3" s="17"/>
     </row>
     <row r="4" spans="2:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B4" s="8" t="s">
         <v>15</v>
       </c>
-      <c r="C4" s="36" t="s">
-        <v>66</v>
-      </c>
-      <c r="D4" s="36"/>
-      <c r="E4" s="36"/>
-      <c r="F4" s="36"/>
-      <c r="G4" s="36"/>
-      <c r="H4" s="36"/>
-      <c r="I4" s="36"/>
-      <c r="J4" s="36"/>
-      <c r="K4" s="36"/>
-      <c r="L4" s="37"/>
+      <c r="C4" s="28" t="s">
+        <v>112</v>
+      </c>
+      <c r="D4" s="28"/>
+      <c r="E4" s="28"/>
+      <c r="F4" s="28"/>
+      <c r="G4" s="28"/>
+      <c r="H4" s="28"/>
+      <c r="I4" s="28"/>
+      <c r="J4" s="28"/>
+      <c r="K4" s="28"/>
+      <c r="L4" s="29"/>
     </row>
     <row r="5" spans="2:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B5" s="4" t="s">
@@ -3191,20 +3280,20 @@
         <v>1</v>
       </c>
       <c r="C6" s="3" t="s">
-        <v>56</v>
+        <v>83</v>
       </c>
       <c r="D6" s="3" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="E6" s="3" t="s">
+        <v>59</v>
+      </c>
+      <c r="F6" s="3" t="s">
         <v>61</v>
-      </c>
-      <c r="F6" s="3" t="s">
-        <v>63</v>
       </c>
       <c r="G6" s="3"/>
       <c r="H6" s="3" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="I6" s="3"/>
       <c r="J6" s="3"/>
@@ -3216,19 +3305,19 @@
         <v>2</v>
       </c>
       <c r="C7" s="10" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="D7" s="10" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="E7" s="10" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="F7" s="10" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="G7" s="10" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="H7" s="10"/>
       <c r="I7" s="10"/>
@@ -3247,13 +3336,13 @@
         <v>35</v>
       </c>
       <c r="E8" s="10" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="F8" s="10" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="G8" s="10" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="H8" s="10"/>
       <c r="I8" s="10"/>
@@ -3326,6 +3415,10 @@
         <v>8</v>
       </c>
       <c r="C13" s="10"/>
+      <c r="D13" s="10"/>
+      <c r="E13" s="10"/>
+      <c r="F13" s="10"/>
+      <c r="G13" s="10"/>
       <c r="H13" s="10"/>
       <c r="I13" s="10"/>
       <c r="J13" s="10"/>
@@ -3614,8 +3707,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="B1:L35"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" zoomScale="115" workbookViewId="0">
-      <selection activeCell="F15" sqref="F15"/>
+    <sheetView showGridLines="0" zoomScale="115" workbookViewId="0">
+      <selection activeCell="D12" sqref="D12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12" x14ac:dyDescent="0.15"/>
@@ -4271,20 +4364,20 @@
         <v>9</v>
       </c>
       <c r="C2" s="3" t="s">
-        <v>75</v>
-      </c>
-      <c r="D2" s="28" t="s">
+        <v>71</v>
+      </c>
+      <c r="D2" s="30" t="s">
         <v>14</v>
       </c>
-      <c r="E2" s="28"/>
-      <c r="F2" s="28"/>
-      <c r="G2" s="28"/>
-      <c r="H2" s="30" t="s">
+      <c r="E2" s="30"/>
+      <c r="F2" s="30"/>
+      <c r="G2" s="30"/>
+      <c r="H2" s="32" t="s">
         <v>12</v>
       </c>
-      <c r="I2" s="30"/>
-      <c r="J2" s="31"/>
-      <c r="K2" s="32"/>
+      <c r="I2" s="32"/>
+      <c r="J2" s="33"/>
+      <c r="K2" s="34"/>
       <c r="L2" s="18" t="s">
         <v>11</v>
       </c>
@@ -4294,36 +4387,36 @@
         <v>10</v>
       </c>
       <c r="C3" s="10" t="s">
-        <v>76</v>
-      </c>
-      <c r="D3" s="29"/>
-      <c r="E3" s="29"/>
-      <c r="F3" s="29"/>
-      <c r="G3" s="29"/>
-      <c r="H3" s="33" t="s">
+        <v>110</v>
+      </c>
+      <c r="D3" s="31"/>
+      <c r="E3" s="31"/>
+      <c r="F3" s="31"/>
+      <c r="G3" s="31"/>
+      <c r="H3" s="35" t="s">
         <v>13</v>
       </c>
-      <c r="I3" s="33"/>
-      <c r="J3" s="34"/>
-      <c r="K3" s="35"/>
+      <c r="I3" s="35"/>
+      <c r="J3" s="36"/>
+      <c r="K3" s="37"/>
       <c r="L3" s="17"/>
     </row>
     <row r="4" spans="2:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B4" s="8" t="s">
         <v>15</v>
       </c>
-      <c r="C4" s="36" t="s">
-        <v>77</v>
-      </c>
-      <c r="D4" s="36"/>
-      <c r="E4" s="36"/>
-      <c r="F4" s="36"/>
-      <c r="G4" s="36"/>
-      <c r="H4" s="36"/>
-      <c r="I4" s="36"/>
-      <c r="J4" s="36"/>
-      <c r="K4" s="36"/>
-      <c r="L4" s="37"/>
+      <c r="C4" s="28" t="s">
+        <v>72</v>
+      </c>
+      <c r="D4" s="28"/>
+      <c r="E4" s="28"/>
+      <c r="F4" s="28"/>
+      <c r="G4" s="28"/>
+      <c r="H4" s="28"/>
+      <c r="I4" s="28"/>
+      <c r="J4" s="28"/>
+      <c r="K4" s="28"/>
+      <c r="L4" s="29"/>
     </row>
     <row r="5" spans="2:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B5" s="4" t="s">
@@ -4365,20 +4458,20 @@
         <v>1</v>
       </c>
       <c r="C6" s="3" t="s">
+        <v>65</v>
+      </c>
+      <c r="D6" s="3" t="s">
         <v>69</v>
       </c>
-      <c r="D6" s="3" t="s">
+      <c r="E6" s="3" t="s">
         <v>73</v>
       </c>
-      <c r="E6" s="3" t="s">
-        <v>78</v>
-      </c>
       <c r="F6" s="3" t="s">
-        <v>91</v>
+        <v>80</v>
       </c>
       <c r="G6" s="3"/>
       <c r="H6" s="3" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="I6" s="3"/>
       <c r="J6" s="3"/>
@@ -4390,16 +4483,16 @@
         <v>2</v>
       </c>
       <c r="C7" s="10" t="s">
-        <v>70</v>
+        <v>66</v>
       </c>
       <c r="D7" s="10" t="s">
         <v>34</v>
       </c>
       <c r="E7" s="10" t="s">
-        <v>79</v>
+        <v>74</v>
       </c>
       <c r="F7" s="10" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="G7" s="10"/>
       <c r="H7" s="10"/>
@@ -4413,16 +4506,16 @@
         <v>3</v>
       </c>
       <c r="C8" s="10" t="s">
-        <v>74</v>
+        <v>70</v>
       </c>
       <c r="D8" s="10" t="s">
         <v>34</v>
       </c>
       <c r="E8" s="10" t="s">
-        <v>80</v>
+        <v>75</v>
       </c>
       <c r="F8" s="10" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="G8" s="10"/>
       <c r="H8" s="10"/>
@@ -4436,16 +4529,16 @@
         <v>4</v>
       </c>
       <c r="C9" s="10" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="D9" s="10" t="s">
-        <v>73</v>
+        <v>69</v>
       </c>
       <c r="E9" s="10" t="s">
-        <v>81</v>
+        <v>76</v>
       </c>
       <c r="F9" s="10" t="s">
-        <v>82</v>
+        <v>77</v>
       </c>
       <c r="G9" s="10"/>
       <c r="H9" s="10"/>
@@ -4504,6 +4597,10 @@
         <v>8</v>
       </c>
       <c r="C13" s="10"/>
+      <c r="D13" s="10"/>
+      <c r="E13" s="10"/>
+      <c r="F13" s="10"/>
+      <c r="G13" s="10"/>
       <c r="H13" s="10"/>
       <c r="I13" s="10"/>
       <c r="J13" s="10"/>
@@ -4793,7 +4890,7 @@
   <dimension ref="B1:L35"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScale="115" workbookViewId="0">
-      <selection activeCell="F10" sqref="F10"/>
+      <selection activeCell="G7" sqref="G7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12" x14ac:dyDescent="0.15"/>
@@ -5449,20 +5546,20 @@
         <v>9</v>
       </c>
       <c r="C2" s="3" t="s">
-        <v>67</v>
-      </c>
-      <c r="D2" s="28" t="s">
+        <v>64</v>
+      </c>
+      <c r="D2" s="30" t="s">
         <v>14</v>
       </c>
-      <c r="E2" s="28"/>
-      <c r="F2" s="28"/>
-      <c r="G2" s="28"/>
-      <c r="H2" s="30" t="s">
+      <c r="E2" s="30"/>
+      <c r="F2" s="30"/>
+      <c r="G2" s="30"/>
+      <c r="H2" s="32" t="s">
         <v>12</v>
       </c>
-      <c r="I2" s="30"/>
-      <c r="J2" s="31"/>
-      <c r="K2" s="32"/>
+      <c r="I2" s="32"/>
+      <c r="J2" s="33"/>
+      <c r="K2" s="34"/>
       <c r="L2" s="18" t="s">
         <v>11</v>
       </c>
@@ -5472,34 +5569,34 @@
         <v>10</v>
       </c>
       <c r="C3" s="10" t="s">
-        <v>68</v>
-      </c>
-      <c r="D3" s="29"/>
-      <c r="E3" s="29"/>
-      <c r="F3" s="29"/>
-      <c r="G3" s="29"/>
-      <c r="H3" s="33" t="s">
+        <v>87</v>
+      </c>
+      <c r="D3" s="31"/>
+      <c r="E3" s="31"/>
+      <c r="F3" s="31"/>
+      <c r="G3" s="31"/>
+      <c r="H3" s="35" t="s">
         <v>13</v>
       </c>
-      <c r="I3" s="33"/>
-      <c r="J3" s="34"/>
-      <c r="K3" s="35"/>
+      <c r="I3" s="35"/>
+      <c r="J3" s="36"/>
+      <c r="K3" s="37"/>
       <c r="L3" s="17"/>
     </row>
     <row r="4" spans="2:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B4" s="8" t="s">
         <v>15</v>
       </c>
-      <c r="C4" s="36"/>
-      <c r="D4" s="36"/>
-      <c r="E4" s="36"/>
-      <c r="F4" s="36"/>
-      <c r="G4" s="36"/>
-      <c r="H4" s="36"/>
-      <c r="I4" s="36"/>
-      <c r="J4" s="36"/>
-      <c r="K4" s="36"/>
-      <c r="L4" s="37"/>
+      <c r="C4" s="28"/>
+      <c r="D4" s="28"/>
+      <c r="E4" s="28"/>
+      <c r="F4" s="28"/>
+      <c r="G4" s="28"/>
+      <c r="H4" s="28"/>
+      <c r="I4" s="28"/>
+      <c r="J4" s="28"/>
+      <c r="K4" s="28"/>
+      <c r="L4" s="29"/>
     </row>
     <row r="5" spans="2:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B5" s="4" t="s">
@@ -5541,20 +5638,20 @@
         <v>1</v>
       </c>
       <c r="C6" s="3" t="s">
+        <v>65</v>
+      </c>
+      <c r="D6" s="3" t="s">
         <v>69</v>
       </c>
-      <c r="D6" s="3" t="s">
-        <v>73</v>
-      </c>
       <c r="E6" s="3" t="s">
-        <v>83</v>
+        <v>99</v>
       </c>
       <c r="F6" s="3" t="s">
-        <v>91</v>
+        <v>80</v>
       </c>
       <c r="G6" s="3"/>
       <c r="H6" s="3" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="I6" s="3"/>
       <c r="J6" s="3"/>
@@ -5566,16 +5663,16 @@
         <v>2</v>
       </c>
       <c r="C7" s="10" t="s">
-        <v>71</v>
+        <v>54</v>
       </c>
       <c r="D7" s="10" t="s">
-        <v>31</v>
+        <v>58</v>
       </c>
       <c r="E7" s="10" t="s">
         <v>84</v>
       </c>
       <c r="F7" s="10" t="s">
-        <v>49</v>
+        <v>61</v>
       </c>
       <c r="G7" s="10"/>
       <c r="H7" s="10"/>
@@ -5589,18 +5686,20 @@
         <v>3</v>
       </c>
       <c r="C8" s="10" t="s">
-        <v>70</v>
+        <v>111</v>
       </c>
       <c r="D8" s="10" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="E8" s="10" t="s">
         <v>85</v>
       </c>
       <c r="F8" s="10" t="s">
-        <v>48</v>
-      </c>
-      <c r="G8" s="10"/>
+        <v>47</v>
+      </c>
+      <c r="G8" s="10" t="s">
+        <v>43</v>
+      </c>
       <c r="H8" s="10"/>
       <c r="I8" s="10"/>
       <c r="J8" s="10"/>
@@ -5612,18 +5711,20 @@
         <v>4</v>
       </c>
       <c r="C9" s="10" t="s">
-        <v>74</v>
+        <v>67</v>
       </c>
       <c r="D9" s="10" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="E9" s="10" t="s">
-        <v>86</v>
+        <v>100</v>
       </c>
       <c r="F9" s="10" t="s">
-        <v>48</v>
-      </c>
-      <c r="G9" s="10"/>
+        <v>47</v>
+      </c>
+      <c r="G9" s="10" t="s">
+        <v>43</v>
+      </c>
       <c r="H9" s="10"/>
       <c r="I9" s="10"/>
       <c r="J9" s="10"/>
@@ -5635,16 +5736,16 @@
         <v>5</v>
       </c>
       <c r="C10" s="10" t="s">
-        <v>58</v>
+        <v>66</v>
       </c>
       <c r="D10" s="10" t="s">
-        <v>73</v>
+        <v>34</v>
       </c>
       <c r="E10" s="10" t="s">
-        <v>87</v>
+        <v>101</v>
       </c>
       <c r="F10" s="10" t="s">
-        <v>92</v>
+        <v>86</v>
       </c>
       <c r="G10" s="10"/>
       <c r="H10" s="10"/>
@@ -5658,20 +5759,18 @@
         <v>6</v>
       </c>
       <c r="C11" s="10" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="D11" s="10" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="E11" s="10" t="s">
-        <v>88</v>
+        <v>102</v>
       </c>
       <c r="F11" s="10" t="s">
-        <v>53</v>
-      </c>
-      <c r="G11" s="10" t="s">
-        <v>44</v>
-      </c>
+        <v>86</v>
+      </c>
+      <c r="G11" s="10"/>
       <c r="H11" s="10"/>
       <c r="I11" s="10"/>
       <c r="J11" s="10"/>
@@ -5683,20 +5782,18 @@
         <v>7</v>
       </c>
       <c r="C12" s="10" t="s">
-        <v>30</v>
+        <v>95</v>
       </c>
       <c r="D12" s="10" t="s">
-        <v>35</v>
+        <v>79</v>
       </c>
       <c r="E12" s="10" t="s">
-        <v>89</v>
+        <v>103</v>
       </c>
       <c r="F12" s="10" t="s">
-        <v>53</v>
-      </c>
-      <c r="G12" s="10" t="s">
-        <v>44</v>
-      </c>
+        <v>77</v>
+      </c>
+      <c r="G12" s="10"/>
       <c r="H12" s="10"/>
       <c r="I12" s="10"/>
       <c r="J12" s="10"/>
@@ -5707,10 +5804,18 @@
       <c r="B13" s="9">
         <v>8</v>
       </c>
-      <c r="C13" s="10"/>
-      <c r="D13" s="10"/>
-      <c r="E13" s="10"/>
-      <c r="F13" s="10"/>
+      <c r="C13" s="10" t="s">
+        <v>96</v>
+      </c>
+      <c r="D13" s="10" t="s">
+        <v>79</v>
+      </c>
+      <c r="E13" s="10" t="s">
+        <v>104</v>
+      </c>
+      <c r="F13" s="10" t="s">
+        <v>77</v>
+      </c>
       <c r="G13" s="10"/>
       <c r="H13" s="10"/>
       <c r="I13" s="10"/>
@@ -5722,11 +5827,21 @@
       <c r="B14" s="9">
         <v>9</v>
       </c>
-      <c r="C14" s="10"/>
-      <c r="D14" s="10"/>
-      <c r="E14" s="10"/>
-      <c r="F14" s="10"/>
-      <c r="G14" s="10"/>
+      <c r="C14" s="10" t="s">
+        <v>68</v>
+      </c>
+      <c r="D14" s="10" t="s">
+        <v>81</v>
+      </c>
+      <c r="E14" s="10" t="s">
+        <v>78</v>
+      </c>
+      <c r="F14" s="10" t="s">
+        <v>82</v>
+      </c>
+      <c r="G14" s="10" t="s">
+        <v>43</v>
+      </c>
       <c r="H14" s="10"/>
       <c r="I14" s="10"/>
       <c r="J14" s="10"/>
@@ -5737,11 +5852,21 @@
       <c r="B15" s="9">
         <v>10</v>
       </c>
-      <c r="C15" s="10"/>
-      <c r="D15" s="10"/>
-      <c r="E15" s="10"/>
-      <c r="F15" s="10"/>
-      <c r="G15" s="10"/>
+      <c r="C15" s="10" t="s">
+        <v>30</v>
+      </c>
+      <c r="D15" s="10" t="s">
+        <v>35</v>
+      </c>
+      <c r="E15" s="10" t="s">
+        <v>105</v>
+      </c>
+      <c r="F15" s="10" t="s">
+        <v>51</v>
+      </c>
+      <c r="G15" s="10" t="s">
+        <v>43</v>
+      </c>
       <c r="H15" s="10"/>
       <c r="I15" s="10"/>
       <c r="J15" s="10"/>
@@ -6001,7 +6126,7 @@
   <dimension ref="B1:L35"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScale="115" workbookViewId="0">
-      <selection activeCell="G20" sqref="G20"/>
+      <selection activeCell="F16" sqref="F16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12" x14ac:dyDescent="0.15"/>
@@ -6657,20 +6782,20 @@
         <v>9</v>
       </c>
       <c r="C2" s="3" t="s">
-        <v>67</v>
-      </c>
-      <c r="D2" s="28" t="s">
+        <v>64</v>
+      </c>
+      <c r="D2" s="30" t="s">
         <v>14</v>
       </c>
-      <c r="E2" s="28"/>
-      <c r="F2" s="28"/>
-      <c r="G2" s="28"/>
-      <c r="H2" s="30" t="s">
+      <c r="E2" s="30"/>
+      <c r="F2" s="30"/>
+      <c r="G2" s="30"/>
+      <c r="H2" s="32" t="s">
         <v>12</v>
       </c>
-      <c r="I2" s="30"/>
-      <c r="J2" s="31"/>
-      <c r="K2" s="32"/>
+      <c r="I2" s="32"/>
+      <c r="J2" s="33"/>
+      <c r="K2" s="34"/>
       <c r="L2" s="18" t="s">
         <v>11</v>
       </c>
@@ -6680,34 +6805,34 @@
         <v>10</v>
       </c>
       <c r="C3" s="10" t="s">
-        <v>68</v>
-      </c>
-      <c r="D3" s="29"/>
-      <c r="E3" s="29"/>
-      <c r="F3" s="29"/>
-      <c r="G3" s="29"/>
-      <c r="H3" s="33" t="s">
+        <v>88</v>
+      </c>
+      <c r="D3" s="31"/>
+      <c r="E3" s="31"/>
+      <c r="F3" s="31"/>
+      <c r="G3" s="31"/>
+      <c r="H3" s="35" t="s">
         <v>13</v>
       </c>
-      <c r="I3" s="33"/>
-      <c r="J3" s="34"/>
-      <c r="K3" s="35"/>
+      <c r="I3" s="35"/>
+      <c r="J3" s="36"/>
+      <c r="K3" s="37"/>
       <c r="L3" s="17"/>
     </row>
-    <row r="4" spans="2:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="4" spans="2:12" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
       <c r="B4" s="8" t="s">
         <v>15</v>
       </c>
-      <c r="C4" s="36"/>
-      <c r="D4" s="36"/>
-      <c r="E4" s="36"/>
-      <c r="F4" s="36"/>
-      <c r="G4" s="36"/>
-      <c r="H4" s="36"/>
-      <c r="I4" s="36"/>
-      <c r="J4" s="36"/>
-      <c r="K4" s="36"/>
-      <c r="L4" s="37"/>
+      <c r="C4" s="28"/>
+      <c r="D4" s="28"/>
+      <c r="E4" s="28"/>
+      <c r="F4" s="28"/>
+      <c r="G4" s="28"/>
+      <c r="H4" s="28"/>
+      <c r="I4" s="28"/>
+      <c r="J4" s="28"/>
+      <c r="K4" s="28"/>
+      <c r="L4" s="29"/>
     </row>
     <row r="5" spans="2:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B5" s="4" t="s">
@@ -6749,20 +6874,20 @@
         <v>1</v>
       </c>
       <c r="C6" s="3" t="s">
+        <v>65</v>
+      </c>
+      <c r="D6" s="3" t="s">
         <v>69</v>
       </c>
-      <c r="D6" s="3" t="s">
-        <v>73</v>
-      </c>
       <c r="E6" s="3" t="s">
-        <v>37</v>
+        <v>93</v>
       </c>
       <c r="F6" s="3" t="s">
-        <v>91</v>
+        <v>80</v>
       </c>
       <c r="G6" s="3"/>
       <c r="H6" s="3" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="I6" s="3"/>
       <c r="J6" s="3"/>
@@ -6774,20 +6899,18 @@
         <v>2</v>
       </c>
       <c r="C7" s="10" t="s">
-        <v>71</v>
+        <v>54</v>
       </c>
       <c r="D7" s="10" t="s">
-        <v>31</v>
+        <v>58</v>
       </c>
       <c r="E7" s="10" t="s">
-        <v>38</v>
+        <v>94</v>
       </c>
       <c r="F7" s="10" t="s">
-        <v>49</v>
-      </c>
-      <c r="G7" s="10" t="s">
-        <v>44</v>
-      </c>
+        <v>61</v>
+      </c>
+      <c r="G7" s="10"/>
       <c r="H7" s="10"/>
       <c r="I7" s="10"/>
       <c r="J7" s="10"/>
@@ -6799,18 +6922,20 @@
         <v>3</v>
       </c>
       <c r="C8" s="10" t="s">
-        <v>70</v>
+        <v>111</v>
       </c>
       <c r="D8" s="10" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="E8" s="10" t="s">
-        <v>39</v>
+        <v>92</v>
       </c>
       <c r="F8" s="10" t="s">
-        <v>51</v>
-      </c>
-      <c r="G8" s="10"/>
+        <v>47</v>
+      </c>
+      <c r="G8" s="10" t="s">
+        <v>43</v>
+      </c>
       <c r="H8" s="10"/>
       <c r="I8" s="10"/>
       <c r="J8" s="10"/>
@@ -6822,18 +6947,20 @@
         <v>4</v>
       </c>
       <c r="C9" s="10" t="s">
-        <v>74</v>
+        <v>67</v>
       </c>
       <c r="D9" s="10" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="E9" s="10" t="s">
-        <v>39</v>
+        <v>91</v>
       </c>
       <c r="F9" s="10" t="s">
-        <v>51</v>
-      </c>
-      <c r="G9" s="10"/>
+        <v>47</v>
+      </c>
+      <c r="G9" s="10" t="s">
+        <v>43</v>
+      </c>
       <c r="H9" s="10"/>
       <c r="I9" s="10"/>
       <c r="J9" s="10"/>
@@ -6845,16 +6972,16 @@
         <v>5</v>
       </c>
       <c r="C10" s="10" t="s">
-        <v>58</v>
+        <v>66</v>
       </c>
       <c r="D10" s="10" t="s">
-        <v>90</v>
+        <v>34</v>
       </c>
       <c r="E10" s="10" t="s">
-        <v>46</v>
+        <v>89</v>
       </c>
       <c r="F10" s="10" t="s">
-        <v>82</v>
+        <v>86</v>
       </c>
       <c r="G10" s="10"/>
       <c r="H10" s="10"/>
@@ -6868,20 +6995,18 @@
         <v>6</v>
       </c>
       <c r="C11" s="10" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="D11" s="10" t="s">
         <v>34</v>
       </c>
       <c r="E11" s="10" t="s">
-        <v>41</v>
+        <v>90</v>
       </c>
       <c r="F11" s="10" t="s">
-        <v>48</v>
-      </c>
-      <c r="G11" s="10" t="s">
-        <v>44</v>
-      </c>
+        <v>86</v>
+      </c>
+      <c r="G11" s="10"/>
       <c r="H11" s="10"/>
       <c r="I11" s="10"/>
       <c r="J11" s="10"/>
@@ -6893,20 +7018,18 @@
         <v>7</v>
       </c>
       <c r="C12" s="10" t="s">
-        <v>30</v>
+        <v>95</v>
       </c>
       <c r="D12" s="10" t="s">
-        <v>35</v>
+        <v>79</v>
       </c>
       <c r="E12" s="10" t="s">
-        <v>42</v>
+        <v>98</v>
       </c>
       <c r="F12" s="10" t="s">
-        <v>53</v>
-      </c>
-      <c r="G12" s="10" t="s">
-        <v>44</v>
-      </c>
+        <v>77</v>
+      </c>
+      <c r="G12" s="10"/>
       <c r="H12" s="10"/>
       <c r="I12" s="10"/>
       <c r="J12" s="10"/>
@@ -6917,10 +7040,18 @@
       <c r="B13" s="9">
         <v>8</v>
       </c>
-      <c r="C13" s="10"/>
-      <c r="D13" s="10"/>
-      <c r="E13" s="10"/>
-      <c r="F13" s="10"/>
+      <c r="C13" s="10" t="s">
+        <v>96</v>
+      </c>
+      <c r="D13" s="10" t="s">
+        <v>79</v>
+      </c>
+      <c r="E13" s="10" t="s">
+        <v>97</v>
+      </c>
+      <c r="F13" s="10" t="s">
+        <v>77</v>
+      </c>
       <c r="G13" s="10"/>
       <c r="H13" s="10"/>
       <c r="I13" s="10"/>
@@ -6932,11 +7063,21 @@
       <c r="B14" s="9">
         <v>9</v>
       </c>
-      <c r="C14" s="10"/>
-      <c r="D14" s="10"/>
-      <c r="E14" s="10"/>
-      <c r="F14" s="10"/>
-      <c r="G14" s="10"/>
+      <c r="C14" s="10" t="s">
+        <v>68</v>
+      </c>
+      <c r="D14" s="10" t="s">
+        <v>81</v>
+      </c>
+      <c r="E14" s="10" t="s">
+        <v>106</v>
+      </c>
+      <c r="F14" s="10" t="s">
+        <v>82</v>
+      </c>
+      <c r="G14" s="10" t="s">
+        <v>43</v>
+      </c>
       <c r="H14" s="10"/>
       <c r="I14" s="10"/>
       <c r="J14" s="10"/>
@@ -6947,11 +7088,21 @@
       <c r="B15" s="9">
         <v>10</v>
       </c>
-      <c r="C15" s="10"/>
-      <c r="D15" s="10"/>
-      <c r="E15" s="10"/>
-      <c r="F15" s="10"/>
-      <c r="G15" s="10"/>
+      <c r="C15" s="10" t="s">
+        <v>30</v>
+      </c>
+      <c r="D15" s="10" t="s">
+        <v>35</v>
+      </c>
+      <c r="E15" s="10" t="s">
+        <v>107</v>
+      </c>
+      <c r="F15" s="10" t="s">
+        <v>51</v>
+      </c>
+      <c r="G15" s="10" t="s">
+        <v>43</v>
+      </c>
       <c r="H15" s="10"/>
       <c r="I15" s="10"/>
       <c r="J15" s="10"/>

--- a/SpMVC_000_Godlife/src/main/webapp/res/doc/godlife-테이블명세-양식.xlsx
+++ b/SpMVC_000_Godlife/src/main/webapp/res/doc/godlife-테이블명세-양식.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\KMS5050012\Documents\homework\SpMVC_000_Godlife\SpMVC_000_Godlife\src\main\webapp\res\doc\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\KMS505229\Desktop\새 폴더\SpMVC_000_Godlife\SpMVC_000_Godlife\src\main\webapp\res\doc\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F990E064-77D4-4568-BA3B-E5289CA247E2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{31BCF1CE-2123-430F-B147-90CCD1B58A23}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="7845" yWindow="1020" windowWidth="17580" windowHeight="13620" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="780" yWindow="780" windowWidth="14025" windowHeight="11295" firstSheet="1" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="유저정보" sheetId="2" r:id="rId1"/>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="286" uniqueCount="113">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="302" uniqueCount="122">
   <si>
     <t>열 이름</t>
   </si>
@@ -225,9 +225,6 @@
   </si>
   <si>
     <t>시작날짜</t>
-  </si>
-  <si>
-    <t>메모</t>
   </si>
   <si>
     <t>공유유무</t>
@@ -394,6 +391,46 @@
   </si>
   <si>
     <t>챌린지, 일정등 계획을 등록하는 테이블</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>제목</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>작성일자</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>c_write</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>메모</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>문자열(200)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>varchar(200)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>s_write</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>s_title</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>c_title</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>문자열(20)</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1310,7 +1347,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="B2:L35"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+    <sheetView showGridLines="0" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
       <selection activeCell="D10" sqref="D10"/>
     </sheetView>
   </sheetViews>
@@ -2089,7 +2126,7 @@
         <v>31</v>
       </c>
       <c r="E7" s="10" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="F7" s="10" t="s">
         <v>47</v>
@@ -2137,7 +2174,7 @@
         <v>32</v>
       </c>
       <c r="E9" s="10" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="F9" s="10" t="s">
         <v>49</v>
@@ -3228,7 +3265,7 @@
         <v>15</v>
       </c>
       <c r="C4" s="28" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="D4" s="28"/>
       <c r="E4" s="28"/>
@@ -3280,7 +3317,7 @@
         <v>1</v>
       </c>
       <c r="C6" s="3" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="D6" s="3" t="s">
         <v>58</v>
@@ -4364,7 +4401,7 @@
         <v>9</v>
       </c>
       <c r="C2" s="3" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="D2" s="30" t="s">
         <v>14</v>
@@ -4387,7 +4424,7 @@
         <v>10</v>
       </c>
       <c r="C3" s="10" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="D3" s="31"/>
       <c r="E3" s="31"/>
@@ -4406,7 +4443,7 @@
         <v>15</v>
       </c>
       <c r="C4" s="28" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="D4" s="28"/>
       <c r="E4" s="28"/>
@@ -4461,13 +4498,13 @@
         <v>65</v>
       </c>
       <c r="D6" s="3" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="E6" s="3" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="F6" s="3" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="G6" s="3"/>
       <c r="H6" s="3" t="s">
@@ -4489,7 +4526,7 @@
         <v>34</v>
       </c>
       <c r="E7" s="10" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="F7" s="10" t="s">
         <v>46</v>
@@ -4506,13 +4543,13 @@
         <v>3</v>
       </c>
       <c r="C8" s="10" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="D8" s="10" t="s">
         <v>34</v>
       </c>
       <c r="E8" s="10" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="F8" s="10" t="s">
         <v>46</v>
@@ -4532,13 +4569,13 @@
         <v>56</v>
       </c>
       <c r="D9" s="10" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="E9" s="10" t="s">
+        <v>75</v>
+      </c>
+      <c r="F9" s="10" t="s">
         <v>76</v>
-      </c>
-      <c r="F9" s="10" t="s">
-        <v>77</v>
       </c>
       <c r="G9" s="10"/>
       <c r="H9" s="10"/>
@@ -4887,10 +4924,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
-  <dimension ref="B1:L35"/>
+  <dimension ref="B1:L37"/>
   <sheetViews>
-    <sheetView showGridLines="0" zoomScale="115" workbookViewId="0">
-      <selection activeCell="G7" sqref="G7"/>
+    <sheetView showGridLines="0" topLeftCell="A4" zoomScale="115" workbookViewId="0">
+      <selection activeCell="D13" sqref="D13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12" x14ac:dyDescent="0.15"/>
@@ -5569,7 +5606,7 @@
         <v>10</v>
       </c>
       <c r="C3" s="10" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="D3" s="31"/>
       <c r="E3" s="31"/>
@@ -5641,13 +5678,13 @@
         <v>65</v>
       </c>
       <c r="D6" s="3" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="E6" s="3" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="F6" s="3" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="G6" s="3"/>
       <c r="H6" s="3" t="s">
@@ -5669,7 +5706,7 @@
         <v>58</v>
       </c>
       <c r="E7" s="10" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="F7" s="10" t="s">
         <v>61</v>
@@ -5686,13 +5723,13 @@
         <v>3</v>
       </c>
       <c r="C8" s="10" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="D8" s="10" t="s">
         <v>31</v>
       </c>
       <c r="E8" s="10" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="F8" s="10" t="s">
         <v>47</v>
@@ -5711,13 +5748,13 @@
         <v>4</v>
       </c>
       <c r="C9" s="10" t="s">
-        <v>67</v>
+        <v>112</v>
       </c>
       <c r="D9" s="10" t="s">
         <v>31</v>
       </c>
       <c r="E9" s="10" t="s">
-        <v>100</v>
+        <v>120</v>
       </c>
       <c r="F9" s="10" t="s">
         <v>47</v>
@@ -5731,21 +5768,21 @@
       <c r="K9" s="10"/>
       <c r="L9" s="15"/>
     </row>
-    <row r="10" spans="2:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="10" spans="2:12" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
       <c r="B10" s="9">
         <v>5</v>
       </c>
       <c r="C10" s="10" t="s">
-        <v>66</v>
+        <v>113</v>
       </c>
       <c r="D10" s="10" t="s">
-        <v>34</v>
+        <v>121</v>
       </c>
       <c r="E10" s="10" t="s">
-        <v>101</v>
+        <v>114</v>
       </c>
       <c r="F10" s="10" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="G10" s="10"/>
       <c r="H10" s="10"/>
@@ -5755,20 +5792,20 @@
       <c r="L10" s="15"/>
     </row>
     <row r="11" spans="2:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B11" s="9">
+      <c r="B11" s="7">
         <v>6</v>
       </c>
       <c r="C11" s="10" t="s">
-        <v>70</v>
+        <v>66</v>
       </c>
       <c r="D11" s="10" t="s">
-        <v>34</v>
+        <v>121</v>
       </c>
       <c r="E11" s="10" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="F11" s="10" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="G11" s="10"/>
       <c r="H11" s="10"/>
@@ -5782,16 +5819,16 @@
         <v>7</v>
       </c>
       <c r="C12" s="10" t="s">
-        <v>95</v>
+        <v>69</v>
       </c>
       <c r="D12" s="10" t="s">
-        <v>79</v>
+        <v>121</v>
       </c>
       <c r="E12" s="10" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="F12" s="10" t="s">
-        <v>77</v>
+        <v>85</v>
       </c>
       <c r="G12" s="10"/>
       <c r="H12" s="10"/>
@@ -5805,16 +5842,16 @@
         <v>8</v>
       </c>
       <c r="C13" s="10" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="D13" s="10" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="E13" s="10" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="F13" s="10" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="G13" s="10"/>
       <c r="H13" s="10"/>
@@ -5828,20 +5865,18 @@
         <v>9</v>
       </c>
       <c r="C14" s="10" t="s">
-        <v>68</v>
+        <v>95</v>
       </c>
       <c r="D14" s="10" t="s">
-        <v>81</v>
+        <v>78</v>
       </c>
       <c r="E14" s="10" t="s">
-        <v>78</v>
+        <v>103</v>
       </c>
       <c r="F14" s="10" t="s">
-        <v>82</v>
-      </c>
-      <c r="G14" s="10" t="s">
-        <v>43</v>
-      </c>
+        <v>76</v>
+      </c>
+      <c r="G14" s="10"/>
       <c r="H14" s="10"/>
       <c r="I14" s="10"/>
       <c r="J14" s="10"/>
@@ -5853,20 +5888,18 @@
         <v>10</v>
       </c>
       <c r="C15" s="10" t="s">
-        <v>30</v>
+        <v>115</v>
       </c>
       <c r="D15" s="10" t="s">
-        <v>35</v>
+        <v>116</v>
       </c>
       <c r="E15" s="10" t="s">
-        <v>105</v>
+        <v>99</v>
       </c>
       <c r="F15" s="10" t="s">
-        <v>51</v>
-      </c>
-      <c r="G15" s="10" t="s">
-        <v>43</v>
-      </c>
+        <v>117</v>
+      </c>
+      <c r="G15" s="10"/>
       <c r="H15" s="10"/>
       <c r="I15" s="10"/>
       <c r="J15" s="10"/>
@@ -5877,11 +5910,21 @@
       <c r="B16" s="9">
         <v>11</v>
       </c>
-      <c r="C16" s="10"/>
-      <c r="D16" s="10"/>
-      <c r="E16" s="10"/>
-      <c r="F16" s="10"/>
-      <c r="G16" s="10"/>
+      <c r="C16" s="10" t="s">
+        <v>67</v>
+      </c>
+      <c r="D16" s="10" t="s">
+        <v>80</v>
+      </c>
+      <c r="E16" s="10" t="s">
+        <v>77</v>
+      </c>
+      <c r="F16" s="10" t="s">
+        <v>81</v>
+      </c>
+      <c r="G16" s="10" t="s">
+        <v>43</v>
+      </c>
       <c r="H16" s="10"/>
       <c r="I16" s="10"/>
       <c r="J16" s="10"/>
@@ -5892,11 +5935,21 @@
       <c r="B17" s="9">
         <v>12</v>
       </c>
-      <c r="C17" s="10"/>
-      <c r="D17" s="10"/>
-      <c r="E17" s="10"/>
-      <c r="F17" s="10"/>
-      <c r="G17" s="10"/>
+      <c r="C17" s="10" t="s">
+        <v>30</v>
+      </c>
+      <c r="D17" s="10" t="s">
+        <v>35</v>
+      </c>
+      <c r="E17" s="10" t="s">
+        <v>104</v>
+      </c>
+      <c r="F17" s="10" t="s">
+        <v>51</v>
+      </c>
+      <c r="G17" s="10" t="s">
+        <v>43</v>
+      </c>
       <c r="H17" s="10"/>
       <c r="I17" s="10"/>
       <c r="J17" s="10"/>
@@ -5905,7 +5958,7 @@
     </row>
     <row r="18" spans="2:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B18" s="9">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="C18" s="10"/>
       <c r="D18" s="10"/>
@@ -5920,7 +5973,7 @@
     </row>
     <row r="19" spans="2:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B19" s="9">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="C19" s="10"/>
       <c r="D19" s="10"/>
@@ -5935,7 +5988,7 @@
     </row>
     <row r="20" spans="2:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B20" s="9">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="C20" s="10"/>
       <c r="D20" s="10"/>
@@ -5949,71 +6002,75 @@
       <c r="L20" s="15"/>
     </row>
     <row r="21" spans="2:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B21" s="11">
+      <c r="B21" s="9">
+        <v>14</v>
+      </c>
+      <c r="C21" s="10"/>
+      <c r="D21" s="10"/>
+      <c r="E21" s="10"/>
+      <c r="F21" s="10"/>
+      <c r="G21" s="10"/>
+      <c r="H21" s="10"/>
+      <c r="I21" s="10"/>
+      <c r="J21" s="10"/>
+      <c r="K21" s="10"/>
+      <c r="L21" s="15"/>
+    </row>
+    <row r="22" spans="2:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B22" s="9">
+        <v>15</v>
+      </c>
+      <c r="C22" s="10"/>
+      <c r="D22" s="10"/>
+      <c r="E22" s="10"/>
+      <c r="F22" s="10"/>
+      <c r="G22" s="10"/>
+      <c r="H22" s="10"/>
+      <c r="I22" s="10"/>
+      <c r="J22" s="10"/>
+      <c r="K22" s="10"/>
+      <c r="L22" s="15"/>
+    </row>
+    <row r="23" spans="2:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B23" s="11">
         <v>16</v>
       </c>
-      <c r="C21" s="6"/>
-      <c r="D21" s="6"/>
-      <c r="E21" s="6"/>
-      <c r="F21" s="6"/>
-      <c r="G21" s="6"/>
-      <c r="H21" s="6"/>
-      <c r="I21" s="6"/>
-      <c r="J21" s="6"/>
-      <c r="K21" s="6"/>
-      <c r="L21" s="16"/>
-    </row>
-    <row r="24" spans="2:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B24" s="1" t="s">
+      <c r="C23" s="6"/>
+      <c r="D23" s="6"/>
+      <c r="E23" s="6"/>
+      <c r="F23" s="6"/>
+      <c r="G23" s="6"/>
+      <c r="H23" s="6"/>
+      <c r="I23" s="6"/>
+      <c r="J23" s="6"/>
+      <c r="K23" s="6"/>
+      <c r="L23" s="16"/>
+    </row>
+    <row r="26" spans="2:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B26" s="1" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="26" spans="2:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B26" s="19" t="s">
+    <row r="28" spans="2:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B28" s="19" t="s">
         <v>18</v>
       </c>
-      <c r="C26" s="20" t="s">
+      <c r="C28" s="20" t="s">
         <v>19</v>
       </c>
-      <c r="D26" s="20" t="s">
+      <c r="D28" s="20" t="s">
         <v>20</v>
       </c>
-      <c r="E26" s="20" t="s">
+      <c r="E28" s="20" t="s">
         <v>21</v>
       </c>
-      <c r="F26" s="20"/>
-      <c r="G26" s="20"/>
-      <c r="H26" s="20"/>
-      <c r="I26" s="20"/>
-      <c r="J26" s="20"/>
-      <c r="K26" s="20"/>
-      <c r="L26" s="21"/>
-    </row>
-    <row r="27" spans="2:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B27" s="22"/>
-      <c r="C27" s="23"/>
-      <c r="D27" s="23"/>
-      <c r="E27" s="23"/>
-      <c r="F27" s="23"/>
-      <c r="G27" s="23"/>
-      <c r="H27" s="23"/>
-      <c r="I27" s="23"/>
-      <c r="J27" s="23"/>
-      <c r="K27" s="23"/>
-      <c r="L27" s="24"/>
-    </row>
-    <row r="28" spans="2:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B28" s="22"/>
-      <c r="C28" s="23"/>
-      <c r="D28" s="23"/>
-      <c r="E28" s="23"/>
-      <c r="F28" s="23"/>
-      <c r="G28" s="23"/>
-      <c r="H28" s="23"/>
-      <c r="I28" s="23"/>
-      <c r="J28" s="23"/>
-      <c r="K28" s="23"/>
-      <c r="L28" s="24"/>
+      <c r="F28" s="20"/>
+      <c r="G28" s="20"/>
+      <c r="H28" s="20"/>
+      <c r="I28" s="20"/>
+      <c r="J28" s="20"/>
+      <c r="K28" s="20"/>
+      <c r="L28" s="21"/>
     </row>
     <row r="29" spans="2:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B29" s="22"/>
@@ -6094,17 +6151,43 @@
       <c r="L34" s="24"/>
     </row>
     <row r="35" spans="2:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B35" s="25"/>
-      <c r="C35" s="26"/>
-      <c r="D35" s="26"/>
-      <c r="E35" s="26"/>
-      <c r="F35" s="26"/>
-      <c r="G35" s="26"/>
-      <c r="H35" s="26"/>
-      <c r="I35" s="26"/>
-      <c r="J35" s="26"/>
-      <c r="K35" s="26"/>
-      <c r="L35" s="27"/>
+      <c r="B35" s="22"/>
+      <c r="C35" s="23"/>
+      <c r="D35" s="23"/>
+      <c r="E35" s="23"/>
+      <c r="F35" s="23"/>
+      <c r="G35" s="23"/>
+      <c r="H35" s="23"/>
+      <c r="I35" s="23"/>
+      <c r="J35" s="23"/>
+      <c r="K35" s="23"/>
+      <c r="L35" s="24"/>
+    </row>
+    <row r="36" spans="2:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B36" s="22"/>
+      <c r="C36" s="23"/>
+      <c r="D36" s="23"/>
+      <c r="E36" s="23"/>
+      <c r="F36" s="23"/>
+      <c r="G36" s="23"/>
+      <c r="H36" s="23"/>
+      <c r="I36" s="23"/>
+      <c r="J36" s="23"/>
+      <c r="K36" s="23"/>
+      <c r="L36" s="24"/>
+    </row>
+    <row r="37" spans="2:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B37" s="25"/>
+      <c r="C37" s="26"/>
+      <c r="D37" s="26"/>
+      <c r="E37" s="26"/>
+      <c r="F37" s="26"/>
+      <c r="G37" s="26"/>
+      <c r="H37" s="26"/>
+      <c r="I37" s="26"/>
+      <c r="J37" s="26"/>
+      <c r="K37" s="26"/>
+      <c r="L37" s="27"/>
     </row>
   </sheetData>
   <mergeCells count="6">
@@ -6117,16 +6200,16 @@
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
-  <dimension ref="B1:L35"/>
+  <dimension ref="B1:L37"/>
   <sheetViews>
-    <sheetView showGridLines="0" zoomScale="115" workbookViewId="0">
-      <selection activeCell="F16" sqref="F16"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A4" zoomScale="115" workbookViewId="0">
+      <selection activeCell="E10" sqref="E10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12" x14ac:dyDescent="0.15"/>
@@ -6805,7 +6888,7 @@
         <v>10</v>
       </c>
       <c r="C3" s="10" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="D3" s="31"/>
       <c r="E3" s="31"/>
@@ -6877,13 +6960,13 @@
         <v>65</v>
       </c>
       <c r="D6" s="3" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="E6" s="3" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="F6" s="3" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="G6" s="3"/>
       <c r="H6" s="3" t="s">
@@ -6905,7 +6988,7 @@
         <v>58</v>
       </c>
       <c r="E7" s="10" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="F7" s="10" t="s">
         <v>61</v>
@@ -6922,13 +7005,13 @@
         <v>3</v>
       </c>
       <c r="C8" s="10" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="D8" s="10" t="s">
         <v>31</v>
       </c>
       <c r="E8" s="10" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="F8" s="10" t="s">
         <v>47</v>
@@ -6942,18 +7025,18 @@
       <c r="K8" s="10"/>
       <c r="L8" s="15"/>
     </row>
-    <row r="9" spans="2:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="9" spans="2:12" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
       <c r="B9" s="9">
         <v>4</v>
       </c>
       <c r="C9" s="10" t="s">
-        <v>67</v>
+        <v>112</v>
       </c>
       <c r="D9" s="10" t="s">
         <v>31</v>
       </c>
       <c r="E9" s="10" t="s">
-        <v>91</v>
+        <v>119</v>
       </c>
       <c r="F9" s="10" t="s">
         <v>47</v>
@@ -6968,20 +7051,20 @@
       <c r="L9" s="15"/>
     </row>
     <row r="10" spans="2:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B10" s="9">
+      <c r="B10" s="7">
         <v>5</v>
       </c>
       <c r="C10" s="10" t="s">
-        <v>66</v>
+        <v>113</v>
       </c>
       <c r="D10" s="10" t="s">
-        <v>34</v>
+        <v>121</v>
       </c>
       <c r="E10" s="10" t="s">
-        <v>89</v>
+        <v>118</v>
       </c>
       <c r="F10" s="10" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="G10" s="10"/>
       <c r="H10" s="10"/>
@@ -6995,16 +7078,16 @@
         <v>6</v>
       </c>
       <c r="C11" s="10" t="s">
-        <v>70</v>
+        <v>66</v>
       </c>
       <c r="D11" s="10" t="s">
-        <v>34</v>
+        <v>121</v>
       </c>
       <c r="E11" s="10" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="F11" s="10" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="G11" s="10"/>
       <c r="H11" s="10"/>
@@ -7018,16 +7101,16 @@
         <v>7</v>
       </c>
       <c r="C12" s="10" t="s">
-        <v>95</v>
+        <v>69</v>
       </c>
       <c r="D12" s="10" t="s">
-        <v>79</v>
+        <v>121</v>
       </c>
       <c r="E12" s="10" t="s">
-        <v>98</v>
+        <v>89</v>
       </c>
       <c r="F12" s="10" t="s">
-        <v>77</v>
+        <v>85</v>
       </c>
       <c r="G12" s="10"/>
       <c r="H12" s="10"/>
@@ -7036,21 +7119,21 @@
       <c r="K12" s="10"/>
       <c r="L12" s="15"/>
     </row>
-    <row r="13" spans="2:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="13" spans="2:12" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
       <c r="B13" s="9">
         <v>8</v>
       </c>
       <c r="C13" s="10" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="D13" s="10" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="E13" s="10" t="s">
         <v>97</v>
       </c>
       <c r="F13" s="10" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="G13" s="10"/>
       <c r="H13" s="10"/>
@@ -7060,24 +7143,22 @@
       <c r="L13" s="15"/>
     </row>
     <row r="14" spans="2:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B14" s="9">
+      <c r="B14" s="7">
         <v>9</v>
       </c>
       <c r="C14" s="10" t="s">
-        <v>68</v>
+        <v>95</v>
       </c>
       <c r="D14" s="10" t="s">
-        <v>81</v>
+        <v>78</v>
       </c>
       <c r="E14" s="10" t="s">
-        <v>106</v>
+        <v>96</v>
       </c>
       <c r="F14" s="10" t="s">
-        <v>82</v>
-      </c>
-      <c r="G14" s="10" t="s">
-        <v>43</v>
-      </c>
+        <v>76</v>
+      </c>
+      <c r="G14" s="10"/>
       <c r="H14" s="10"/>
       <c r="I14" s="10"/>
       <c r="J14" s="10"/>
@@ -7089,20 +7170,18 @@
         <v>10</v>
       </c>
       <c r="C15" s="10" t="s">
-        <v>30</v>
+        <v>115</v>
       </c>
       <c r="D15" s="10" t="s">
-        <v>35</v>
+        <v>116</v>
       </c>
       <c r="E15" s="10" t="s">
-        <v>107</v>
+        <v>90</v>
       </c>
       <c r="F15" s="10" t="s">
-        <v>51</v>
-      </c>
-      <c r="G15" s="10" t="s">
-        <v>43</v>
-      </c>
+        <v>117</v>
+      </c>
+      <c r="G15" s="10"/>
       <c r="H15" s="10"/>
       <c r="I15" s="10"/>
       <c r="J15" s="10"/>
@@ -7113,11 +7192,21 @@
       <c r="B16" s="9">
         <v>11</v>
       </c>
-      <c r="C16" s="10"/>
-      <c r="D16" s="10"/>
-      <c r="E16" s="10"/>
-      <c r="F16" s="10"/>
-      <c r="G16" s="10"/>
+      <c r="C16" s="10" t="s">
+        <v>67</v>
+      </c>
+      <c r="D16" s="10" t="s">
+        <v>80</v>
+      </c>
+      <c r="E16" s="10" t="s">
+        <v>105</v>
+      </c>
+      <c r="F16" s="10" t="s">
+        <v>81</v>
+      </c>
+      <c r="G16" s="10" t="s">
+        <v>43</v>
+      </c>
       <c r="H16" s="10"/>
       <c r="I16" s="10"/>
       <c r="J16" s="10"/>
@@ -7128,11 +7217,21 @@
       <c r="B17" s="9">
         <v>12</v>
       </c>
-      <c r="C17" s="10"/>
-      <c r="D17" s="10"/>
-      <c r="E17" s="10"/>
-      <c r="F17" s="10"/>
-      <c r="G17" s="10"/>
+      <c r="C17" s="10" t="s">
+        <v>30</v>
+      </c>
+      <c r="D17" s="10" t="s">
+        <v>35</v>
+      </c>
+      <c r="E17" s="10" t="s">
+        <v>106</v>
+      </c>
+      <c r="F17" s="10" t="s">
+        <v>51</v>
+      </c>
+      <c r="G17" s="10" t="s">
+        <v>43</v>
+      </c>
       <c r="H17" s="10"/>
       <c r="I17" s="10"/>
       <c r="J17" s="10"/>
@@ -7141,7 +7240,7 @@
     </row>
     <row r="18" spans="2:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B18" s="9">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="C18" s="10"/>
       <c r="D18" s="10"/>
@@ -7156,7 +7255,7 @@
     </row>
     <row r="19" spans="2:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B19" s="9">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="C19" s="10"/>
       <c r="D19" s="10"/>
@@ -7171,7 +7270,7 @@
     </row>
     <row r="20" spans="2:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B20" s="9">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="C20" s="10"/>
       <c r="D20" s="10"/>
@@ -7185,71 +7284,75 @@
       <c r="L20" s="15"/>
     </row>
     <row r="21" spans="2:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B21" s="11">
+      <c r="B21" s="9">
+        <v>14</v>
+      </c>
+      <c r="C21" s="10"/>
+      <c r="D21" s="10"/>
+      <c r="E21" s="10"/>
+      <c r="F21" s="10"/>
+      <c r="G21" s="10"/>
+      <c r="H21" s="10"/>
+      <c r="I21" s="10"/>
+      <c r="J21" s="10"/>
+      <c r="K21" s="10"/>
+      <c r="L21" s="15"/>
+    </row>
+    <row r="22" spans="2:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B22" s="9">
+        <v>15</v>
+      </c>
+      <c r="C22" s="10"/>
+      <c r="D22" s="10"/>
+      <c r="E22" s="10"/>
+      <c r="F22" s="10"/>
+      <c r="G22" s="10"/>
+      <c r="H22" s="10"/>
+      <c r="I22" s="10"/>
+      <c r="J22" s="10"/>
+      <c r="K22" s="10"/>
+      <c r="L22" s="15"/>
+    </row>
+    <row r="23" spans="2:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B23" s="11">
         <v>16</v>
       </c>
-      <c r="C21" s="6"/>
-      <c r="D21" s="6"/>
-      <c r="E21" s="6"/>
-      <c r="F21" s="6"/>
-      <c r="G21" s="6"/>
-      <c r="H21" s="6"/>
-      <c r="I21" s="6"/>
-      <c r="J21" s="6"/>
-      <c r="K21" s="6"/>
-      <c r="L21" s="16"/>
-    </row>
-    <row r="24" spans="2:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B24" s="1" t="s">
+      <c r="C23" s="6"/>
+      <c r="D23" s="6"/>
+      <c r="E23" s="6"/>
+      <c r="F23" s="6"/>
+      <c r="G23" s="6"/>
+      <c r="H23" s="6"/>
+      <c r="I23" s="6"/>
+      <c r="J23" s="6"/>
+      <c r="K23" s="6"/>
+      <c r="L23" s="16"/>
+    </row>
+    <row r="26" spans="2:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B26" s="1" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="26" spans="2:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B26" s="19" t="s">
+    <row r="28" spans="2:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B28" s="19" t="s">
         <v>18</v>
       </c>
-      <c r="C26" s="20" t="s">
+      <c r="C28" s="20" t="s">
         <v>19</v>
       </c>
-      <c r="D26" s="20" t="s">
+      <c r="D28" s="20" t="s">
         <v>20</v>
       </c>
-      <c r="E26" s="20" t="s">
+      <c r="E28" s="20" t="s">
         <v>21</v>
       </c>
-      <c r="F26" s="20"/>
-      <c r="G26" s="20"/>
-      <c r="H26" s="20"/>
-      <c r="I26" s="20"/>
-      <c r="J26" s="20"/>
-      <c r="K26" s="20"/>
-      <c r="L26" s="21"/>
-    </row>
-    <row r="27" spans="2:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B27" s="22"/>
-      <c r="C27" s="23"/>
-      <c r="D27" s="23"/>
-      <c r="E27" s="23"/>
-      <c r="F27" s="23"/>
-      <c r="G27" s="23"/>
-      <c r="H27" s="23"/>
-      <c r="I27" s="23"/>
-      <c r="J27" s="23"/>
-      <c r="K27" s="23"/>
-      <c r="L27" s="24"/>
-    </row>
-    <row r="28" spans="2:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B28" s="22"/>
-      <c r="C28" s="23"/>
-      <c r="D28" s="23"/>
-      <c r="E28" s="23"/>
-      <c r="F28" s="23"/>
-      <c r="G28" s="23"/>
-      <c r="H28" s="23"/>
-      <c r="I28" s="23"/>
-      <c r="J28" s="23"/>
-      <c r="K28" s="23"/>
-      <c r="L28" s="24"/>
+      <c r="F28" s="20"/>
+      <c r="G28" s="20"/>
+      <c r="H28" s="20"/>
+      <c r="I28" s="20"/>
+      <c r="J28" s="20"/>
+      <c r="K28" s="20"/>
+      <c r="L28" s="21"/>
     </row>
     <row r="29" spans="2:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B29" s="22"/>
@@ -7330,17 +7433,43 @@
       <c r="L34" s="24"/>
     </row>
     <row r="35" spans="2:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B35" s="25"/>
-      <c r="C35" s="26"/>
-      <c r="D35" s="26"/>
-      <c r="E35" s="26"/>
-      <c r="F35" s="26"/>
-      <c r="G35" s="26"/>
-      <c r="H35" s="26"/>
-      <c r="I35" s="26"/>
-      <c r="J35" s="26"/>
-      <c r="K35" s="26"/>
-      <c r="L35" s="27"/>
+      <c r="B35" s="22"/>
+      <c r="C35" s="23"/>
+      <c r="D35" s="23"/>
+      <c r="E35" s="23"/>
+      <c r="F35" s="23"/>
+      <c r="G35" s="23"/>
+      <c r="H35" s="23"/>
+      <c r="I35" s="23"/>
+      <c r="J35" s="23"/>
+      <c r="K35" s="23"/>
+      <c r="L35" s="24"/>
+    </row>
+    <row r="36" spans="2:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B36" s="22"/>
+      <c r="C36" s="23"/>
+      <c r="D36" s="23"/>
+      <c r="E36" s="23"/>
+      <c r="F36" s="23"/>
+      <c r="G36" s="23"/>
+      <c r="H36" s="23"/>
+      <c r="I36" s="23"/>
+      <c r="J36" s="23"/>
+      <c r="K36" s="23"/>
+      <c r="L36" s="24"/>
+    </row>
+    <row r="37" spans="2:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B37" s="25"/>
+      <c r="C37" s="26"/>
+      <c r="D37" s="26"/>
+      <c r="E37" s="26"/>
+      <c r="F37" s="26"/>
+      <c r="G37" s="26"/>
+      <c r="H37" s="26"/>
+      <c r="I37" s="26"/>
+      <c r="J37" s="26"/>
+      <c r="K37" s="26"/>
+      <c r="L37" s="27"/>
     </row>
   </sheetData>
   <mergeCells count="6">
